--- a/biology/Botanique/Cosmos_bipinnatus/Cosmos_bipinnatus.xlsx
+++ b/biology/Botanique/Cosmos_bipinnatus/Cosmos_bipinnatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosmos bipinnatus (le Cosmos bipenné) est une espèce de plantes à fleurs de la famille des Asteraceae.
-C'est une plante herbacée de taille moyenne, originaire du Mexique, du Guatemala et du Costa Rica[2]. Elle est cultivée dans les jardins, mais on la trouve également à l'état sauvage dans une grande partie de l'Amérique du Nord.
+C'est une plante herbacée de taille moyenne, originaire du Mexique, du Guatemala et du Costa Rica. Elle est cultivée dans les jardins, mais on la trouve également à l'état sauvage dans une grande partie de l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est annuelle. Elle se reproduit par un ensemencement abondant. Sa hauteur varie de 60 à 120 cm. Son feuillage est finement découpé en segments filiformes de largeur 0,5 à 1 mm.
 Lors de la floraison, la plante peut s'affaisser sous son poids. Ce problème peut être résolu en groupant les pieds de telle sorte que les feuilles s'accrochent entre elles. Les fleurs ont un diamètre de 5 à 7 cm, et des couleurs variées selon les cultivars.
@@ -545,7 +559,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Cosmos bipinnatus sont blancs, roses, rouges ou cramoisis. Il existe de nombreux cultivars :
 le Dazzler atteint 90 cm avec des fleurs cramoisies.
@@ -586,7 +602,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">la germination prend 7 à 10 jours pour une température optimale de 24 °C.
 la floraison débute 60 à 90 jours après la germination.
